--- a/Backlog Burndown.xlsx
+++ b/Backlog Burndown.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew\Documents\CSCE 315\TeamProject2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\toaster\homes\g\r\gratan\nt\CSCE 315\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="List of all things to do" sheetId="1" r:id="rId1"/>
@@ -366,6 +366,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -405,6 +406,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Ideal Remaining Hours</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -535,6 +539,43 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Remaining Hours</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>120.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C87-47EC-8D6A-2BAF04BB26A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -662,6 +703,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1806,7 +1879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2579,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,6 +2690,9 @@
       <c r="A3" s="7">
         <v>43039</v>
       </c>
+      <c r="B3">
+        <v>98.5</v>
+      </c>
       <c r="C3">
         <v>112</v>
       </c>
@@ -2750,7 +2826,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,14 +2887,24 @@
       <c r="A3" s="7">
         <v>43039</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5</v>
+      </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G17" si="0">SUM(B3:F3)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -3052,7 +3138,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3111,14 +3197,24 @@
       <c r="A3" s="7">
         <v>43037</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
       <c r="G3" s="6">
         <f t="shared" ref="G3:G18" si="0">SUM(B3:F3)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3349,7 +3445,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,9 +3501,24 @@
       <c r="A3" s="7">
         <v>43037</v>
       </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>3.5</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
       <c r="G3">
         <f t="shared" ref="G3:G18" si="0">SUM(B3:F3)</f>
-        <v>0</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/Backlog Burndown.xlsx
+++ b/Backlog Burndown.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\toaster\homes\g\r\gratan\nt\CSCE 315\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="List of all things to do" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -432,7 +431,7 @@
                   <c:v>43039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43041</c:v>
+                  <c:v>43040</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>43043</c:v>
@@ -566,6 +565,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,7 +707,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1879,7 +1880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2652,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,7 +2700,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>43041</v>
+        <v>43040</v>
+      </c>
+      <c r="B4">
+        <v>91.5</v>
       </c>
       <c r="C4">
         <v>103.5</v>
@@ -2823,10 +2827,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,8 +2862,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>43037</v>
+      <c r="A2" s="10">
+        <v>43035</v>
       </c>
       <c r="B2" s="8">
         <v>6</v>
@@ -2880,12 +2884,10 @@
         <f>SUM(B2:F2)</f>
         <v>43</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>43039</v>
+        <v>43037</v>
       </c>
       <c r="B3" s="8">
         <v>3</v>
@@ -2903,7 +2905,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G17" si="0">SUM(B3:F3)</f>
+        <f t="shared" ref="G3:G4" si="0">SUM(B3:F3)</f>
         <v>36</v>
       </c>
       <c r="H3" s="8"/>
@@ -2911,23 +2913,33 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>43041</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+        <v>43039</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5</v>
+      </c>
       <c r="G4" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>43043</v>
+        <v>43041</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2935,7 +2947,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G4:G18" si="1">SUM(B5:F5)</f>
         <v>0</v>
       </c>
       <c r="H5" s="8"/>
@@ -2943,7 +2955,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>43045</v>
+        <v>43043</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2951,7 +2963,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="8"/>
@@ -2959,7 +2971,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>43047</v>
+        <v>43045</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2967,7 +2979,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7" s="8"/>
@@ -2975,7 +2987,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>43049</v>
+        <v>43047</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2983,7 +2995,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="8"/>
@@ -2991,14 +3003,15 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>43051</v>
+        <v>43049</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="8"/>
@@ -3006,14 +3019,14 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>43053</v>
+        <v>43051</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="8"/>
@@ -3021,14 +3034,14 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>43055</v>
+        <v>43053</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="8"/>
@@ -3036,14 +3049,14 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>43057</v>
+        <v>43055</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="8"/>
@@ -3051,14 +3064,14 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>43059</v>
+        <v>43057</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13" s="8"/>
@@ -3066,15 +3079,14 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>43061</v>
+        <v>43059</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="8"/>
@@ -3082,7 +3094,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>43063</v>
+        <v>43061</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -3090,7 +3102,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="8"/>
@@ -3098,7 +3110,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>43065</v>
+        <v>43063</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3106,7 +3118,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
@@ -3114,7 +3126,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>43067</v>
+        <v>43065</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3122,14 +3134,31 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>43067</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3138,7 +3167,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,16 +3248,26 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>43039</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+        <v>43040</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5</v>
+      </c>
       <c r="G4" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3445,7 +3484,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,11 +3562,26 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>43039</v>
+        <v>43040</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/Backlog Burndown.xlsx
+++ b/Backlog Burndown.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="List of all things to do" sheetId="1" r:id="rId1"/>
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -302,6 +302,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -420,56 +423,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Burndown Chart'!$A$2:$A$17</c:f>
+              <c:f>'Burndown Chart'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>43035</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43037</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43039</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>43040</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>43042</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>43043</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43045</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43047</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43049</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43051</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43053</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43055</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43057</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43059</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43061</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43063</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43065</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43067</c:v>
                 </c:pt>
               </c:numCache>
@@ -477,10 +483,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$C$2:$C$17</c:f>
+              <c:f>'Burndown Chart'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>120.5</c:v>
                 </c:pt>
@@ -491,42 +497,45 @@
                   <c:v>103.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>86.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>77.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>68.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>59.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>50.5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>42.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>34.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>26.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>18.5</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>10.5</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -554,12 +563,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>43035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43042</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43045</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43049</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43051</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43053</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43055</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43057</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43059</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43061</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43063</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43065</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$2:$B$17</c:f>
+              <c:f>'Burndown Chart'!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>120.5</c:v>
                 </c:pt>
@@ -568,6 +637,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,13 +1394,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1880,7 +1952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2651,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,9 +2748,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>43037</v>
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>43035</v>
       </c>
       <c r="B2">
         <v>120.5</v>
@@ -2689,7 +2761,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>43039</v>
+        <v>43037</v>
       </c>
       <c r="B3">
         <v>98.5</v>
@@ -2700,7 +2772,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>43040</v>
+        <v>43039</v>
       </c>
       <c r="B4">
         <v>91.5</v>
@@ -2711,117 +2783,129 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>43043</v>
+        <v>43042</v>
+      </c>
+      <c r="B5">
+        <v>89</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>43045</v>
+        <v>43043</v>
       </c>
       <c r="C6">
-        <v>86.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>43047</v>
+        <v>43045</v>
       </c>
       <c r="C7">
-        <v>77.5</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>43049</v>
+        <v>43047</v>
       </c>
       <c r="C8">
-        <v>68.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>43051</v>
+        <v>43049</v>
       </c>
       <c r="C9">
-        <v>59.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>43053</v>
+        <v>43051</v>
       </c>
       <c r="C10">
-        <v>50.5</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>43055</v>
+        <v>43053</v>
       </c>
       <c r="C11">
-        <v>42.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>43057</v>
+        <v>43055</v>
       </c>
       <c r="C12">
-        <v>34.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>43059</v>
+        <v>43057</v>
       </c>
       <c r="C13">
-        <v>26.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>43061</v>
+        <v>43059</v>
       </c>
       <c r="C14">
-        <v>18.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>43063</v>
+        <v>43061</v>
       </c>
       <c r="C15">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>43065</v>
+        <v>43063</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
+        <v>43065</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>43067</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="C18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2830,7 +2914,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2939,16 +3023,26 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>43041</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+        <v>43042</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5</v>
+      </c>
       <c r="G5" s="9">
-        <f t="shared" ref="G4:G18" si="1">SUM(B5:F5)</f>
-        <v>0</v>
+        <f t="shared" ref="G5:G18" si="1">SUM(B5:F5)</f>
+        <v>32</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -3167,7 +3261,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,16 +3366,26 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>43041</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+        <v>43042</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3484,7 +3588,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,9 +3692,24 @@
       <c r="A5" s="7">
         <v>43041</v>
       </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
